--- a/RFerreira.xlsx
+++ b/RFerreira.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D5A3DA-CAE0-4439-881B-958809DF4E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02889349-9A8A-4B86-8561-7C509D0C3718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
+    <workbookView xWindow="7200" yWindow="4320" windowWidth="21600" windowHeight="11280" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
   <sheets>
-    <sheet name="VSilva" sheetId="1" r:id="rId1"/>
+    <sheet name="RFerreira" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/RFerreira.xlsx
+++ b/RFerreira.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6535607D-D5F3-464F-97B4-AA6EC26AFBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA83556-C46E-40AC-92E3-C0958D1D85AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19F08B1-E82F-4D29-A56A-D827CEDB6872}"/>
   </bookViews>
@@ -86,19 +86,10 @@
     <t>PEN</t>
   </si>
   <si>
-    <t>6A30</t>
-  </si>
-  <si>
-    <t>A VENCER</t>
-  </si>
-  <si>
     <t>31A60</t>
   </si>
   <si>
     <t>NC</t>
-  </si>
-  <si>
-    <t>1A5</t>
   </si>
   <si>
     <t>M120</t>
@@ -107,19 +98,10 @@
     <t>NCPR</t>
   </si>
   <si>
-    <t>Raul &amp; Costa, Lda.</t>
-  </si>
-  <si>
     <t>Renato Ferreira</t>
   </si>
   <si>
-    <t>Super Talho Famalicense, Lda.</t>
-  </si>
-  <si>
     <t>RPR</t>
-  </si>
-  <si>
-    <t>Talho Maxi, Lda.</t>
   </si>
   <si>
     <t>O Talhinho Rozé - Carnes Unipessoal</t>
@@ -129,21 +111,6 @@
   </si>
   <si>
     <t>61A90</t>
-  </si>
-  <si>
-    <t>Campos &amp; Doutor, Lda.</t>
-  </si>
-  <si>
-    <t>Peixoto &amp; Pereira, Lda</t>
-  </si>
-  <si>
-    <t>Talho Boi Preto, Lda</t>
-  </si>
-  <si>
-    <t>Caxicarnes Talho, Lda</t>
-  </si>
-  <si>
-    <t>N.T.Novo Talho De Barcelos, Lda.</t>
   </si>
   <si>
     <t>Carnes Campicarn, S.A.</t>
@@ -161,16 +128,115 @@
     <t>2025R</t>
   </si>
   <si>
+    <t>Telbac Teixeira &amp; Leite Bacalhau E</t>
+  </si>
+  <si>
+    <t>Navarras - Supermercados, Lda</t>
+  </si>
+  <si>
+    <t>Amadeu Rodrigues, Unipessoal Lda</t>
+  </si>
+  <si>
+    <t>Mário Jorge Moreira Mota</t>
+  </si>
+  <si>
+    <t>Maria Do Rosário Moreira Magalhães</t>
+  </si>
+  <si>
+    <t>Galo Pardo - Talho, Unipessoal Lda</t>
+  </si>
+  <si>
+    <t>Armindo Costa &amp; Filhos, Lda.</t>
+  </si>
+  <si>
+    <t>Elpicarnes - Indústria Carnes, Lda.</t>
+  </si>
+  <si>
+    <t>Globalmesa - Comercio Produtos</t>
+  </si>
+  <si>
+    <t>José Pereira</t>
+  </si>
+  <si>
+    <t>Cândido Manuel Carvalho Rodrigues</t>
+  </si>
+  <si>
+    <t>A VENCER</t>
+  </si>
+  <si>
+    <t>Cândido &amp; Evaristo, Lda.</t>
+  </si>
+  <si>
+    <t>Raul &amp; Costa, Lda.</t>
+  </si>
+  <si>
+    <t>Super Talho Famalicense, Lda.</t>
+  </si>
+  <si>
+    <t>25A</t>
+  </si>
+  <si>
+    <t>Agostinho &amp; Carneiro, Lda.</t>
+  </si>
+  <si>
+    <t>Talho Maxi, Lda.</t>
+  </si>
+  <si>
+    <t>1A15</t>
+  </si>
+  <si>
+    <t>Manuel Cândido Gonçalves Rodrigues</t>
+  </si>
+  <si>
+    <t>16A30</t>
+  </si>
+  <si>
+    <t>Campos &amp; Doutor, Lda.</t>
+  </si>
+  <si>
+    <t>Martins &amp; Farias, Lda.</t>
+  </si>
+  <si>
+    <t>Peixoto &amp; Pereira, Lda</t>
+  </si>
+  <si>
+    <t>O Imbativel - José Alfredo Santos,</t>
+  </si>
+  <si>
+    <t>Distrifelgueiras Supermercado, Lda</t>
+  </si>
+  <si>
+    <t>Talho Boi Preto, Lda</t>
+  </si>
+  <si>
+    <t>Avetirso - Comercio De Carnes, Lda</t>
+  </si>
+  <si>
+    <t>Caxicarnes Talho, Lda</t>
+  </si>
+  <si>
+    <t>N.T.Novo Talho De Barcelos, Lda.</t>
+  </si>
+  <si>
+    <t>Amadeu Sá, Lda</t>
+  </si>
+  <si>
     <t>Fernando Pereira Abreu, Unip.Lda</t>
   </si>
   <si>
     <t>Talho Cruz Das Bouças Unip., Lda</t>
   </si>
   <si>
-    <t>Telbac Teixeira &amp; Leite Bacalhau E</t>
+    <t>Nunicarnes-Ind.E Com.De Carnes,Lda</t>
+  </si>
+  <si>
+    <t>Msro, Lda</t>
   </si>
   <si>
     <t>Surpresaparalela Supermercado</t>
+  </si>
+  <si>
+    <t>José António Moreira Soares</t>
   </si>
   <si>
     <t>Requinte Provável Carnes Unip.,Lda</t>
@@ -179,13 +245,10 @@
     <t>Famameat-Comércio E Transformação</t>
   </si>
   <si>
-    <t>Carlos M. Rebelo Ribeiro Unip.,Lda</t>
+    <t>Cometa Verde-Comércio De Carnes,Lda</t>
   </si>
   <si>
-    <t>Navarras - Supermercados, Lda</t>
-  </si>
-  <si>
-    <t>Amadeu Rodrigues, Unipessoal Lda</t>
+    <t>Carlos M. Rebelo Ribeiro Unip.,Lda</t>
   </si>
   <si>
     <t>O Sabor Das Carnes Unip.,Lda</t>
@@ -194,10 +257,13 @@
     <t>A.F.Macedo Supermercados Unip., Lda</t>
   </si>
   <si>
-    <t>Mário Jorge Moreira Mota</t>
+    <t>Gelfer Unipessoal, Lda</t>
   </si>
   <si>
     <t>Talho Santo António, Lda</t>
+  </si>
+  <si>
+    <t>Interviana-Supermercados,Lda</t>
   </si>
   <si>
     <t>Pedro Jorge M. M. Unipessoal, Lda</t>
@@ -206,22 +272,31 @@
     <t>Salgado &amp; Lopes, Lda</t>
   </si>
   <si>
+    <t>Famaves - Comércio De Carnes, Lda</t>
+  </si>
+  <si>
+    <t>Bruno Miguel Torres Soares</t>
+  </si>
+  <si>
     <t>Paulo Jorge Magalhães Miranda</t>
   </si>
   <si>
     <t>Frescura Abundante Unip.,Lda</t>
   </si>
   <si>
-    <t>O Chicheiro Unipessoal,Lda</t>
+    <t>Sara Macedo Unip., Lda</t>
   </si>
   <si>
-    <t>Maria Do Rosário Moreira Magalhães</t>
+    <t>Pastelaria E Pão Quente Miminho,Lda</t>
+  </si>
+  <si>
+    <t>O Chicheiro Unipessoal,Lda</t>
   </si>
   <si>
     <t>Padaria E Pastel Carlos Ramos, Lda.</t>
   </si>
   <si>
-    <t>Galo Pardo - Talho, Unipessoal Lda</t>
+    <t>Oliveira, Leite &amp; Filhos, Lda</t>
   </si>
   <si>
     <t>Daniel Júlio de Jesus</t>
@@ -239,85 +314,10 @@
     <t>Partilhar o Futuro - Talhos, Lda</t>
   </si>
   <si>
-    <t>Cândido &amp; Evaristo, Lda.</t>
-  </si>
-  <si>
-    <t>25A</t>
-  </si>
-  <si>
-    <t>Agostinho &amp; Carneiro, Lda.</t>
-  </si>
-  <si>
-    <t>Armindo Costa &amp; Filhos, Lda.</t>
-  </si>
-  <si>
-    <t>Elpicarnes - Indústria Carnes, Lda.</t>
-  </si>
-  <si>
-    <t>Globalmesa - Comercio Produtos</t>
-  </si>
-  <si>
-    <t>Distrifelgueiras Supermercado, Lda</t>
-  </si>
-  <si>
-    <t>Avetirso - Comercio De Carnes, Lda</t>
-  </si>
-  <si>
-    <t>Amadeu Sá, Lda</t>
-  </si>
-  <si>
-    <t>Nunicarnes-Ind.E Com.De Carnes,Lda</t>
-  </si>
-  <si>
-    <t>Msro, Lda</t>
-  </si>
-  <si>
-    <t>José António Moreira Soares</t>
-  </si>
-  <si>
-    <t>Gelfer Unipessoal, Lda</t>
-  </si>
-  <si>
-    <t>Interviana-Supermercados,Lda</t>
-  </si>
-  <si>
-    <t>José Pereira</t>
-  </si>
-  <si>
-    <t>Famaves - Comércio De Carnes, Lda</t>
-  </si>
-  <si>
-    <t>Sara Macedo Unip., Lda</t>
-  </si>
-  <si>
-    <t>Oliveira, Leite &amp; Filhos, Lda</t>
+    <t>Talho dos Galegos - Ricardo Gonzalez Moreira</t>
   </si>
   <si>
     <t>Catarina Amorim Cardoso</t>
-  </si>
-  <si>
-    <t>Cândido Manuel Carvalho Rodrigues</t>
-  </si>
-  <si>
-    <t>Manuel Cândido Gonçalves Rodrigues</t>
-  </si>
-  <si>
-    <t>Martins &amp; Farias, Lda.</t>
-  </si>
-  <si>
-    <t>O Imbativel - José Alfredo Santos,</t>
-  </si>
-  <si>
-    <t>Cometa Verde-Comércio De Carnes,Lda</t>
-  </si>
-  <si>
-    <t>Bruno Miguel Torres Soares</t>
-  </si>
-  <si>
-    <t>Pastelaria E Pão Quente Miminho,Lda</t>
-  </si>
-  <si>
-    <t>Talho dos Galegos - Ricardo Gonzalez Moreira</t>
   </si>
   <si>
     <t>Joaquim Teixeira - Cabeça de Casal da Herança</t>
@@ -698,7 +698,7 @@
   <dimension ref="A1:M267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +754,7 @@
         <v>211110062</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -766,7 +766,7 @@
         <v>13259</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1">
         <v>45938.408125000002</v>
@@ -784,10 +784,10 @@
         <v>24.75</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>211110098</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -807,7 +807,7 @@
         <v>12953</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>45931.371053240742</v>
@@ -825,10 +825,10 @@
         <v>16.73</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>211110098</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -848,7 +848,7 @@
         <v>12976</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>45931.422268518516</v>
@@ -866,10 +866,10 @@
         <v>46.86</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>211110098</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -907,10 +907,10 @@
         <v>16.96</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>211110152</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -948,10 +948,10 @@
         <v>94.13</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>211110152</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -989,10 +989,10 @@
         <v>224.72</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>211110152</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -1030,10 +1030,10 @@
         <v>117.66</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1041,7 +1041,7 @@
         <v>211110191</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -1071,10 +1071,10 @@
         <v>161.77000000000001</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1082,7 +1082,7 @@
         <v>211110191</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -1112,10 +1112,10 @@
         <v>11.5</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1123,7 +1123,7 @@
         <v>211110191</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1153,10 +1153,10 @@
         <v>224.67000000000002</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1164,7 +1164,7 @@
         <v>211110191</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1194,10 +1194,10 @@
         <v>53.76</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1205,7 +1205,7 @@
         <v>211110191</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -1235,10 +1235,10 @@
         <v>117.11</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>211110191</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
@@ -1276,10 +1276,10 @@
         <v>36.17</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1287,7 +1287,7 @@
         <v>211110191</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -1317,10 +1317,10 @@
         <v>362.3</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>211110191</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
@@ -1358,10 +1358,10 @@
         <v>54.370000000000005</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>211110191</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1399,10 +1399,10 @@
         <v>171.87</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1410,10 +1410,10 @@
         <v>211110191</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -1440,10 +1440,10 @@
         <v>-13.84</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>211110191</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1481,10 +1481,10 @@
         <v>142.59</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1492,7 +1492,7 @@
         <v>211110191</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1522,10 +1522,10 @@
         <v>224.16</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1533,7 +1533,7 @@
         <v>211110191</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1563,10 +1563,10 @@
         <v>54.94</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>211110191</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1604,10 +1604,10 @@
         <v>58.81</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1615,7 +1615,7 @@
         <v>211110191</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1645,10 +1645,10 @@
         <v>92.72</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>211110191</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1686,10 +1686,10 @@
         <v>48.68</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1697,7 +1697,7 @@
         <v>211110191</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1727,10 +1727,10 @@
         <v>304.7</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>211110191</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1768,10 +1768,10 @@
         <v>108.06</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1779,7 +1779,7 @@
         <v>211110191</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
@@ -1809,10 +1809,10 @@
         <v>92.5</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1820,7 +1820,7 @@
         <v>211110191</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
@@ -1850,10 +1850,10 @@
         <v>117.17</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>211110191</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>13</v>
@@ -1891,10 +1891,10 @@
         <v>166.48</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>211110191</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1932,10 +1932,10 @@
         <v>355.40000000000003</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1943,7 +1943,7 @@
         <v>211110191</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
@@ -1973,10 +1973,10 @@
         <v>54.02</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1984,7 +1984,7 @@
         <v>211110191</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
@@ -2014,10 +2014,10 @@
         <v>16.690000000000001</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2025,7 +2025,7 @@
         <v>211110191</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>13</v>
@@ -2055,10 +2055,10 @@
         <v>164.48</v>
       </c>
       <c r="L33" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M33" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>211110191</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>13</v>
@@ -2096,10 +2096,10 @@
         <v>209.83</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M34" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>211110191</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
@@ -2137,10 +2137,10 @@
         <v>149.59</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2148,7 +2148,7 @@
         <v>211110191</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -2178,10 +2178,10 @@
         <v>233.59</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M36" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,7 +2189,7 @@
         <v>211110191</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
@@ -2219,10 +2219,10 @@
         <v>21.02</v>
       </c>
       <c r="L37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2230,7 +2230,7 @@
         <v>211110191</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>13</v>
@@ -2260,10 +2260,10 @@
         <v>169.42000000000002</v>
       </c>
       <c r="L38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>211110191</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -2301,10 +2301,10 @@
         <v>64.3</v>
       </c>
       <c r="L39" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2312,13 +2312,13 @@
         <v>211110191</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E40">
         <v>12</v>
@@ -2342,10 +2342,10 @@
         <v>-20.48</v>
       </c>
       <c r="L40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>211110191</v>
       </c>
       <c r="B41" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
@@ -2383,10 +2383,10 @@
         <v>223.43</v>
       </c>
       <c r="L41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>211110191</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
@@ -2424,10 +2424,10 @@
         <v>208.01</v>
       </c>
       <c r="L42" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2435,7 +2435,7 @@
         <v>211110191</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
@@ -2465,10 +2465,10 @@
         <v>336.15000000000003</v>
       </c>
       <c r="L43" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2476,7 +2476,7 @@
         <v>211110191</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
@@ -2506,10 +2506,10 @@
         <v>82.100000000000009</v>
       </c>
       <c r="L44" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>211110191</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
@@ -2547,10 +2547,10 @@
         <v>227.6</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2558,7 +2558,7 @@
         <v>211110191</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
@@ -2588,10 +2588,10 @@
         <v>363.07</v>
       </c>
       <c r="L46" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2599,10 +2599,10 @@
         <v>211110212</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -2629,10 +2629,10 @@
         <v>-0.84</v>
       </c>
       <c r="L47" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>211110212</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
@@ -2670,10 +2670,10 @@
         <v>201.26</v>
       </c>
       <c r="L48" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2681,7 +2681,7 @@
         <v>211110212</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
@@ -2711,10 +2711,10 @@
         <v>298.93</v>
       </c>
       <c r="L49" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
         <v>211110212</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -2752,10 +2752,10 @@
         <v>780.63</v>
       </c>
       <c r="L50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
         <v>211110212</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>13</v>
@@ -2793,10 +2793,10 @@
         <v>246.48000000000002</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M51" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2804,10 +2804,10 @@
         <v>211110212</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>2025</v>
@@ -2834,10 +2834,10 @@
         <v>-48.19</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M52" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2845,7 +2845,7 @@
         <v>211110212</v>
       </c>
       <c r="B53" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -2875,10 +2875,10 @@
         <v>137.65</v>
       </c>
       <c r="L53" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2886,7 +2886,7 @@
         <v>211110212</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
@@ -2916,10 +2916,10 @@
         <v>239.03</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>211110212</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
@@ -2957,10 +2957,10 @@
         <v>68.88</v>
       </c>
       <c r="L55" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2968,7 +2968,7 @@
         <v>211110212</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
         <v>13</v>
@@ -2998,10 +2998,10 @@
         <v>152.72</v>
       </c>
       <c r="L56" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M56" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -3009,7 +3009,7 @@
         <v>211110264</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
@@ -3039,10 +3039,10 @@
         <v>519.91999999999996</v>
       </c>
       <c r="L57" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
@@ -3050,7 +3050,7 @@
         <v>211110264</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
@@ -3080,10 +3080,10 @@
         <v>87.67</v>
       </c>
       <c r="L58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3091,7 +3091,7 @@
         <v>211110294</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
@@ -3121,10 +3121,10 @@
         <v>110.76</v>
       </c>
       <c r="L59" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3132,10 +3132,10 @@
         <v>211110294</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D60">
         <v>2025</v>
@@ -3162,10 +3162,10 @@
         <v>-26.85</v>
       </c>
       <c r="L60" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M60" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3173,7 +3173,7 @@
         <v>211110294</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -3203,10 +3203,10 @@
         <v>159.46</v>
       </c>
       <c r="L61" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M61" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>211110294</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -3244,10 +3244,10 @@
         <v>387.28000000000003</v>
       </c>
       <c r="L62" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M62" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>211110327</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -3267,7 +3267,7 @@
         <v>13238</v>
       </c>
       <c r="F63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G63" s="1">
         <v>45953.351793981477</v>
@@ -3285,10 +3285,10 @@
         <v>40.910000000000004</v>
       </c>
       <c r="L63" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M63" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3296,7 +3296,7 @@
         <v>211110379</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -3326,10 +3326,10 @@
         <v>505.04</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3337,10 +3337,10 @@
         <v>211110379</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D65" t="s">
         <v>14</v>
@@ -3367,10 +3367,10 @@
         <v>-5.91</v>
       </c>
       <c r="L65" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3378,7 +3378,7 @@
         <v>211110379</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -3408,10 +3408,10 @@
         <v>682.81000000000006</v>
       </c>
       <c r="L66" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3419,7 +3419,7 @@
         <v>211110379</v>
       </c>
       <c r="B67" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
@@ -3449,10 +3449,10 @@
         <v>753.16</v>
       </c>
       <c r="L67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3460,7 +3460,7 @@
         <v>211110379</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
@@ -3490,10 +3490,10 @@
         <v>25.46</v>
       </c>
       <c r="L68" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M68" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3501,7 +3501,7 @@
         <v>211110379</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
@@ -3531,10 +3531,10 @@
         <v>592.29</v>
       </c>
       <c r="L69" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M69" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3542,10 +3542,10 @@
         <v>211110379</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D70">
         <v>2025</v>
@@ -3572,10 +3572,10 @@
         <v>-537.06000000000006</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3583,7 +3583,7 @@
         <v>211110379</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
         <v>13</v>
@@ -3613,10 +3613,10 @@
         <v>677.38</v>
       </c>
       <c r="L71" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M71" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3624,10 +3624,10 @@
         <v>211110379</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D72">
         <v>2025</v>
@@ -3654,10 +3654,10 @@
         <v>-472.29</v>
       </c>
       <c r="L72" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M72" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3665,7 +3665,7 @@
         <v>211110379</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>13</v>
@@ -3695,10 +3695,10 @@
         <v>944.59</v>
       </c>
       <c r="L73" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M73" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
         <v>211110379</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
@@ -3736,10 +3736,10 @@
         <v>577.26</v>
       </c>
       <c r="L74" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M74" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3747,7 +3747,7 @@
         <v>211110379</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C75" t="s">
         <v>13</v>
@@ -3777,10 +3777,10 @@
         <v>138.74</v>
       </c>
       <c r="L75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" t="s">
         <v>24</v>
-      </c>
-      <c r="M75" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3788,10 +3788,10 @@
         <v>211110379</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -3818,10 +3818,10 @@
         <v>-5.96</v>
       </c>
       <c r="L76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" t="s">
         <v>24</v>
-      </c>
-      <c r="M76" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3829,7 +3829,7 @@
         <v>211110379</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
@@ -3859,10 +3859,10 @@
         <v>493.26</v>
       </c>
       <c r="L77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" t="s">
         <v>24</v>
-      </c>
-      <c r="M77" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -3870,10 +3870,10 @@
         <v>211110379</v>
       </c>
       <c r="B78" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" t="s">
         <v>14</v>
@@ -3900,10 +3900,10 @@
         <v>-18</v>
       </c>
       <c r="L78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
         <v>24</v>
-      </c>
-      <c r="M78" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
@@ -3911,7 +3911,7 @@
         <v>211110379</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -3941,10 +3941,10 @@
         <v>849.23</v>
       </c>
       <c r="L79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" t="s">
         <v>24</v>
-      </c>
-      <c r="M79" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3952,7 +3952,7 @@
         <v>211110472</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -3982,10 +3982,10 @@
         <v>200.74</v>
       </c>
       <c r="L80" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
         <v>211110472</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
         <v>13</v>
@@ -4023,10 +4023,10 @@
         <v>54.58</v>
       </c>
       <c r="L81" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
@@ -4034,7 +4034,7 @@
         <v>211110472</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -4064,10 +4064,10 @@
         <v>251.39000000000001</v>
       </c>
       <c r="L82" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>211110472</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C83" t="s">
         <v>13</v>
@@ -4105,10 +4105,10 @@
         <v>55.120000000000005</v>
       </c>
       <c r="L83" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M83" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
@@ -4116,7 +4116,7 @@
         <v>211110472</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -4146,10 +4146,10 @@
         <v>110.74000000000001</v>
       </c>
       <c r="L84" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M84" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4157,7 +4157,7 @@
         <v>211110472</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -4187,10 +4187,10 @@
         <v>53.26</v>
       </c>
       <c r="L85" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M85" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>211110545</v>
       </c>
       <c r="B86" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
         <v>13</v>
@@ -4210,7 +4210,7 @@
         <v>12525</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G86" s="1">
         <v>45932.456157407403</v>
@@ -4228,10 +4228,10 @@
         <v>114.89</v>
       </c>
       <c r="L86" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M86" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4239,7 +4239,7 @@
         <v>211110545</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -4251,7 +4251,7 @@
         <v>12742</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G87" s="1">
         <v>45939.459293981483</v>
@@ -4269,10 +4269,10 @@
         <v>148.08000000000001</v>
       </c>
       <c r="L87" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M87" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
@@ -4280,7 +4280,7 @@
         <v>211110545</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -4292,7 +4292,7 @@
         <v>13004</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G88" s="1">
         <v>45946.515347222223</v>
@@ -4310,10 +4310,10 @@
         <v>94.850000000000009</v>
       </c>
       <c r="L88" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4321,7 +4321,7 @@
         <v>211110545</v>
       </c>
       <c r="B89" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -4351,10 +4351,10 @@
         <v>126.11</v>
       </c>
       <c r="L89" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M89" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4362,7 +4362,7 @@
         <v>211110629</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
@@ -4392,10 +4392,10 @@
         <v>104.51</v>
       </c>
       <c r="L90" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M90" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4403,7 +4403,7 @@
         <v>211110665</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -4415,7 +4415,7 @@
         <v>12965</v>
       </c>
       <c r="F91" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G91" s="1">
         <v>45931.371296296296</v>
@@ -4433,10 +4433,10 @@
         <v>132.86000000000001</v>
       </c>
       <c r="L91" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M91" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
@@ -4444,7 +4444,7 @@
         <v>211110665</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -4456,7 +4456,7 @@
         <v>12979</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G92" s="1">
         <v>45931.422326388885</v>
@@ -4474,10 +4474,10 @@
         <v>22.46</v>
       </c>
       <c r="L92" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M92" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4485,7 +4485,7 @@
         <v>211110665</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
@@ -4497,7 +4497,7 @@
         <v>13131</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G93" s="1">
         <v>45933.406851851847</v>
@@ -4515,10 +4515,10 @@
         <v>106.95</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M93" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
@@ -4526,7 +4526,7 @@
         <v>211110665</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
@@ -4556,10 +4556,10 @@
         <v>102.13</v>
       </c>
       <c r="L94" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M94" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
@@ -4567,10 +4567,10 @@
         <v>211110972</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>2025</v>
@@ -4597,10 +4597,10 @@
         <v>-70.86</v>
       </c>
       <c r="L95" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M95" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
@@ -4608,7 +4608,7 @@
         <v>211110972</v>
       </c>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -4638,10 +4638,10 @@
         <v>305.11</v>
       </c>
       <c r="L96" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M96" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4649,7 +4649,7 @@
         <v>211111017</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -4679,10 +4679,10 @@
         <v>46.59</v>
       </c>
       <c r="L97" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
         <v>211111156</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
         <v>13</v>
@@ -4720,10 +4720,10 @@
         <v>251.39000000000001</v>
       </c>
       <c r="L98" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M98" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>211111156</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C99" t="s">
         <v>13</v>
@@ -4761,10 +4761,10 @@
         <v>235.68</v>
       </c>
       <c r="L99" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M99" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4772,7 +4772,7 @@
         <v>211111156</v>
       </c>
       <c r="B100" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C100" t="s">
         <v>13</v>
@@ -4802,10 +4802,10 @@
         <v>185.95000000000002</v>
       </c>
       <c r="L100" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M100" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4813,7 +4813,7 @@
         <v>211111156</v>
       </c>
       <c r="B101" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
@@ -4843,10 +4843,10 @@
         <v>114.62</v>
       </c>
       <c r="L101" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M101" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4854,7 +4854,7 @@
         <v>211111166</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
@@ -4884,10 +4884,10 @@
         <v>211.88</v>
       </c>
       <c r="L102" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M102" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4895,7 +4895,7 @@
         <v>211111166</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
         <v>13</v>
@@ -4925,10 +4925,10 @@
         <v>152.62</v>
       </c>
       <c r="L103" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M103" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
         <v>211111166</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
         <v>13</v>
@@ -4966,10 +4966,10 @@
         <v>310.48</v>
       </c>
       <c r="L104" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M104" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4977,7 +4977,7 @@
         <v>211111166</v>
       </c>
       <c r="B105" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
         <v>13</v>
@@ -5007,10 +5007,10 @@
         <v>302.73</v>
       </c>
       <c r="L105" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M105" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -5018,7 +5018,7 @@
         <v>211111193</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C106" t="s">
         <v>13</v>
@@ -5048,10 +5048,10 @@
         <v>44.94</v>
       </c>
       <c r="L106" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M106" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -5059,7 +5059,7 @@
         <v>211111193</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
@@ -5089,10 +5089,10 @@
         <v>107.93</v>
       </c>
       <c r="L107" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M107" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -5100,7 +5100,7 @@
         <v>211111193</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C108" t="s">
         <v>13</v>
@@ -5130,10 +5130,10 @@
         <v>242.85</v>
       </c>
       <c r="L108" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M108" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
         <v>211111193</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -5171,10 +5171,10 @@
         <v>165.18</v>
       </c>
       <c r="L109" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M109" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -5182,7 +5182,7 @@
         <v>211111219</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C110" t="s">
         <v>13</v>
@@ -5212,10 +5212,10 @@
         <v>60.74</v>
       </c>
       <c r="L110" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M110" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,7 @@
         <v>211111219</v>
       </c>
       <c r="B111" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -5253,10 +5253,10 @@
         <v>89.27</v>
       </c>
       <c r="L111" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M111" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
         <v>211111219</v>
       </c>
       <c r="B112" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C112" t="s">
         <v>13</v>
@@ -5294,10 +5294,10 @@
         <v>62.61</v>
       </c>
       <c r="L112" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M112" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5305,10 +5305,10 @@
         <v>211111233</v>
       </c>
       <c r="B113" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D113">
         <v>2025</v>
@@ -5335,10 +5335,10 @@
         <v>-6.19</v>
       </c>
       <c r="L113" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M113" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5346,7 +5346,7 @@
         <v>211111233</v>
       </c>
       <c r="B114" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
@@ -5376,10 +5376,10 @@
         <v>88.960000000000008</v>
       </c>
       <c r="L114" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M114" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5387,13 +5387,13 @@
         <v>211111260</v>
       </c>
       <c r="B115" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E115">
         <v>17</v>
@@ -5417,10 +5417,10 @@
         <v>207.65</v>
       </c>
       <c r="L115" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M115" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5428,7 +5428,7 @@
         <v>211111387</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -5458,10 +5458,10 @@
         <v>601.37</v>
       </c>
       <c r="L116" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M116" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5469,7 +5469,7 @@
         <v>211111387</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -5499,10 +5499,10 @@
         <v>350.65000000000003</v>
       </c>
       <c r="L117" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M117" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5510,7 +5510,7 @@
         <v>211111387</v>
       </c>
       <c r="B118" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -5540,10 +5540,10 @@
         <v>139.30000000000001</v>
       </c>
       <c r="L118" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M118" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5551,7 +5551,7 @@
         <v>211111387</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -5581,10 +5581,10 @@
         <v>421.36</v>
       </c>
       <c r="L119" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M119" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5592,7 +5592,7 @@
         <v>211111387</v>
       </c>
       <c r="B120" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -5622,10 +5622,10 @@
         <v>223.47</v>
       </c>
       <c r="L120" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M120" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5633,7 +5633,7 @@
         <v>211111387</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -5663,10 +5663,10 @@
         <v>370</v>
       </c>
       <c r="L121" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M121" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5674,7 +5674,7 @@
         <v>211111387</v>
       </c>
       <c r="B122" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -5704,10 +5704,10 @@
         <v>119.65</v>
       </c>
       <c r="L122" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M122" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5715,7 +5715,7 @@
         <v>211111387</v>
       </c>
       <c r="B123" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -5745,10 +5745,10 @@
         <v>301.61</v>
       </c>
       <c r="L123" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M123" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5756,7 +5756,7 @@
         <v>211111387</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -5786,10 +5786,10 @@
         <v>377.25</v>
       </c>
       <c r="L124" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M124" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5797,10 +5797,10 @@
         <v>211111387</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
@@ -5827,10 +5827,10 @@
         <v>-7.36</v>
       </c>
       <c r="L125" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M125" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5838,7 +5838,7 @@
         <v>211111387</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -5868,10 +5868,10 @@
         <v>326.53000000000003</v>
       </c>
       <c r="L126" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M126" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5879,13 +5879,13 @@
         <v>211111393</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E127">
         <v>135</v>
@@ -5909,10 +5909,10 @@
         <v>-33.380000000000003</v>
       </c>
       <c r="L127" t="s">
+        <v>20</v>
+      </c>
+      <c r="M127" t="s">
         <v>24</v>
-      </c>
-      <c r="M127" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5920,7 +5920,7 @@
         <v>211111406</v>
       </c>
       <c r="B128" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -5932,7 +5932,7 @@
         <v>13158</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G128" s="1">
         <v>45919.347731481481</v>
@@ -5950,10 +5950,10 @@
         <v>40.770000000000003</v>
       </c>
       <c r="L128" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M128" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5961,7 +5961,7 @@
         <v>211111406</v>
       </c>
       <c r="B129" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
@@ -5973,7 +5973,7 @@
         <v>13254</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G129" s="1">
         <v>45923.396967592591</v>
@@ -5991,10 +5991,10 @@
         <v>135.97999999999999</v>
       </c>
       <c r="L129" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M129" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6002,7 +6002,7 @@
         <v>211111423</v>
       </c>
       <c r="B130" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
@@ -6032,10 +6032,10 @@
         <v>37.92</v>
       </c>
       <c r="L130" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M130" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -6043,7 +6043,7 @@
         <v>211111423</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C131" t="s">
         <v>13</v>
@@ -6073,10 +6073,10 @@
         <v>77.06</v>
       </c>
       <c r="L131" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M131" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6084,7 +6084,7 @@
         <v>211111423</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
@@ -6114,10 +6114,10 @@
         <v>35.25</v>
       </c>
       <c r="L132" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M132" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -6125,7 +6125,7 @@
         <v>211111423</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
         <v>13</v>
@@ -6155,10 +6155,10 @@
         <v>115.72</v>
       </c>
       <c r="L133" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M133" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6166,7 +6166,7 @@
         <v>211111478</v>
       </c>
       <c r="B134" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C134" t="s">
         <v>13</v>
@@ -6196,10 +6196,10 @@
         <v>48.22</v>
       </c>
       <c r="L134" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M134" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -6207,7 +6207,7 @@
         <v>211111478</v>
       </c>
       <c r="B135" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
@@ -6237,10 +6237,10 @@
         <v>57.38</v>
       </c>
       <c r="L135" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M135" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -6248,7 +6248,7 @@
         <v>211111478</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C136" t="s">
         <v>13</v>
@@ -6278,10 +6278,10 @@
         <v>98.990000000000009</v>
       </c>
       <c r="L136" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M136" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>211111478</v>
       </c>
       <c r="B137" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C137" t="s">
         <v>13</v>
@@ -6319,10 +6319,10 @@
         <v>77.16</v>
       </c>
       <c r="L137" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M137" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6330,7 +6330,7 @@
         <v>211111506</v>
       </c>
       <c r="B138" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
@@ -6360,10 +6360,10 @@
         <v>165.18</v>
       </c>
       <c r="L138" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M138" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6371,7 +6371,7 @@
         <v>211111506</v>
       </c>
       <c r="B139" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C139" t="s">
         <v>13</v>
@@ -6401,10 +6401,10 @@
         <v>89.88</v>
       </c>
       <c r="L139" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M139" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
         <v>211111506</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C140" t="s">
         <v>13</v>
@@ -6442,10 +6442,10 @@
         <v>272.86</v>
       </c>
       <c r="L140" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M140" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6453,7 +6453,7 @@
         <v>211111506</v>
       </c>
       <c r="B141" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C141" t="s">
         <v>13</v>
@@ -6483,10 +6483,10 @@
         <v>28.47</v>
       </c>
       <c r="L141" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M141" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6494,10 +6494,10 @@
         <v>211111556</v>
       </c>
       <c r="B142" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D142">
         <v>2025</v>
@@ -6524,10 +6524,10 @@
         <v>-26.240000000000002</v>
       </c>
       <c r="L142" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M142" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6535,7 +6535,7 @@
         <v>211111556</v>
       </c>
       <c r="B143" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C143" t="s">
         <v>13</v>
@@ -6565,10 +6565,10 @@
         <v>570.03</v>
       </c>
       <c r="L143" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M143" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6576,10 +6576,10 @@
         <v>211111556</v>
       </c>
       <c r="B144" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D144">
         <v>2025</v>
@@ -6606,10 +6606,10 @@
         <v>-37</v>
       </c>
       <c r="L144" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M144" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6617,7 +6617,7 @@
         <v>211111556</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
         <v>13</v>
@@ -6647,10 +6647,10 @@
         <v>219.69</v>
       </c>
       <c r="L145" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M145" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6658,7 +6658,7 @@
         <v>211111556</v>
       </c>
       <c r="B146" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C146" t="s">
         <v>13</v>
@@ -6688,10 +6688,10 @@
         <v>223.05</v>
       </c>
       <c r="L146" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M146" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6699,7 +6699,7 @@
         <v>211111567</v>
       </c>
       <c r="B147" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C147" t="s">
         <v>13</v>
@@ -6729,10 +6729,10 @@
         <v>20.010000000000002</v>
       </c>
       <c r="L147" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M147" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6740,7 +6740,7 @@
         <v>211111567</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -6770,10 +6770,10 @@
         <v>52.480000000000004</v>
       </c>
       <c r="L148" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M148" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6781,7 +6781,7 @@
         <v>211111567</v>
       </c>
       <c r="B149" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C149" t="s">
         <v>13</v>
@@ -6811,10 +6811,10 @@
         <v>79.510000000000005</v>
       </c>
       <c r="L149" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M149" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6822,7 +6822,7 @@
         <v>211111599</v>
       </c>
       <c r="B150" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C150" t="s">
         <v>13</v>
@@ -6834,7 +6834,7 @@
         <v>12745</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G150" s="1">
         <v>45924.459363425922</v>
@@ -6852,10 +6852,10 @@
         <v>109.86</v>
       </c>
       <c r="L150" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M150" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6863,7 +6863,7 @@
         <v>211111646</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C151" t="s">
         <v>13</v>
@@ -6893,10 +6893,10 @@
         <v>38.700000000000003</v>
       </c>
       <c r="L151" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M151" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6904,7 +6904,7 @@
         <v>211111646</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -6934,10 +6934,10 @@
         <v>91.92</v>
       </c>
       <c r="L152" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M152" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6945,7 +6945,7 @@
         <v>211111647</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
@@ -6975,10 +6975,10 @@
         <v>59.42</v>
       </c>
       <c r="L153" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M153" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6986,7 +6986,7 @@
         <v>211111647</v>
       </c>
       <c r="B154" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
@@ -7016,10 +7016,10 @@
         <v>101.75</v>
       </c>
       <c r="L154" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M154" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7027,7 +7027,7 @@
         <v>211111647</v>
       </c>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C155" t="s">
         <v>13</v>
@@ -7057,10 +7057,10 @@
         <v>127.68</v>
       </c>
       <c r="L155" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M155" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7068,7 +7068,7 @@
         <v>211111673</v>
       </c>
       <c r="B156" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C156" t="s">
         <v>13</v>
@@ -7080,7 +7080,7 @@
         <v>13235</v>
       </c>
       <c r="F156" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G156" s="1">
         <v>45938.349583333329</v>
@@ -7098,10 +7098,10 @@
         <v>26.330000000000002</v>
       </c>
       <c r="L156" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M156" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7109,7 +7109,7 @@
         <v>211111673</v>
       </c>
       <c r="B157" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
@@ -7121,7 +7121,7 @@
         <v>13308</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G157" s="1">
         <v>45939.363761574074</v>
@@ -7139,10 +7139,10 @@
         <v>255.94</v>
       </c>
       <c r="L157" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M157" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7150,7 +7150,7 @@
         <v>211111830</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C158" t="s">
         <v>13</v>
@@ -7180,10 +7180,10 @@
         <v>58.06</v>
       </c>
       <c r="L158" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M158" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7191,7 +7191,7 @@
         <v>211111830</v>
       </c>
       <c r="B159" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C159" t="s">
         <v>13</v>
@@ -7221,10 +7221,10 @@
         <v>82.25</v>
       </c>
       <c r="L159" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M159" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -7232,7 +7232,7 @@
         <v>211111832</v>
       </c>
       <c r="B160" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C160" t="s">
         <v>13</v>
@@ -7262,10 +7262,10 @@
         <v>163.52000000000001</v>
       </c>
       <c r="L160" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M160" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -7273,7 +7273,7 @@
         <v>211111832</v>
       </c>
       <c r="B161" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C161" t="s">
         <v>13</v>
@@ -7303,10 +7303,10 @@
         <v>159.94</v>
       </c>
       <c r="L161" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M161" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -7314,7 +7314,7 @@
         <v>211111832</v>
       </c>
       <c r="B162" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C162" t="s">
         <v>13</v>
@@ -7344,10 +7344,10 @@
         <v>69.59</v>
       </c>
       <c r="L162" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M162" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7355,7 +7355,7 @@
         <v>211111832</v>
       </c>
       <c r="B163" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C163" t="s">
         <v>13</v>
@@ -7385,10 +7385,10 @@
         <v>362.03000000000003</v>
       </c>
       <c r="L163" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M163" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7396,7 +7396,7 @@
         <v>211111832</v>
       </c>
       <c r="B164" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C164" t="s">
         <v>13</v>
@@ -7426,10 +7426,10 @@
         <v>414.34000000000003</v>
       </c>
       <c r="L164" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M164" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7437,7 +7437,7 @@
         <v>211111832</v>
       </c>
       <c r="B165" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C165" t="s">
         <v>13</v>
@@ -7467,10 +7467,10 @@
         <v>55.44</v>
       </c>
       <c r="L165" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M165" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -7478,7 +7478,7 @@
         <v>211111832</v>
       </c>
       <c r="B166" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C166" t="s">
         <v>13</v>
@@ -7508,10 +7508,10 @@
         <v>366.97</v>
       </c>
       <c r="L166" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M166" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7519,7 +7519,7 @@
         <v>211111832</v>
       </c>
       <c r="B167" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
         <v>13</v>
@@ -7549,10 +7549,10 @@
         <v>159.31</v>
       </c>
       <c r="L167" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M167" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -7560,7 +7560,7 @@
         <v>211111832</v>
       </c>
       <c r="B168" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C168" t="s">
         <v>13</v>
@@ -7590,10 +7590,10 @@
         <v>420.68</v>
       </c>
       <c r="L168" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M168" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7601,10 +7601,10 @@
         <v>211111832</v>
       </c>
       <c r="B169" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D169">
         <v>2025</v>
@@ -7631,10 +7631,10 @@
         <v>-68.290000000000006</v>
       </c>
       <c r="L169" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M169" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7642,7 +7642,7 @@
         <v>211111832</v>
       </c>
       <c r="B170" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
         <v>13</v>
@@ -7672,10 +7672,10 @@
         <v>176.39000000000001</v>
       </c>
       <c r="L170" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M170" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7683,7 +7683,7 @@
         <v>211111832</v>
       </c>
       <c r="B171" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C171" t="s">
         <v>13</v>
@@ -7713,10 +7713,10 @@
         <v>460.85</v>
       </c>
       <c r="L171" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M171" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7724,7 +7724,7 @@
         <v>211111832</v>
       </c>
       <c r="B172" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C172" t="s">
         <v>13</v>
@@ -7754,10 +7754,10 @@
         <v>57.9</v>
       </c>
       <c r="L172" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M172" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7765,7 +7765,7 @@
         <v>211111832</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C173" t="s">
         <v>13</v>
@@ -7795,10 +7795,10 @@
         <v>400.48</v>
       </c>
       <c r="L173" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M173" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7806,7 +7806,7 @@
         <v>211111832</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
@@ -7836,10 +7836,10 @@
         <v>42.03</v>
       </c>
       <c r="L174" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M174" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
@@ -7847,7 +7847,7 @@
         <v>211111832</v>
       </c>
       <c r="B175" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C175" t="s">
         <v>13</v>
@@ -7877,10 +7877,10 @@
         <v>323.86</v>
       </c>
       <c r="L175" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M175" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
@@ -7888,7 +7888,7 @@
         <v>211111832</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C176" t="s">
         <v>13</v>
@@ -7918,10 +7918,10 @@
         <v>117.07000000000001</v>
       </c>
       <c r="L176" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M176" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7929,7 +7929,7 @@
         <v>211111832</v>
       </c>
       <c r="B177" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C177" t="s">
         <v>13</v>
@@ -7959,10 +7959,10 @@
         <v>235.01</v>
       </c>
       <c r="L177" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7970,7 +7970,7 @@
         <v>211111832</v>
       </c>
       <c r="B178" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
@@ -8000,10 +8000,10 @@
         <v>153.30000000000001</v>
       </c>
       <c r="L178" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M178" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8011,10 +8011,10 @@
         <v>211111875</v>
       </c>
       <c r="B179" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D179">
         <v>2025</v>
@@ -8041,10 +8041,10 @@
         <v>-17.34</v>
       </c>
       <c r="L179" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M179" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
         <v>211111875</v>
       </c>
       <c r="B180" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C180" t="s">
         <v>13</v>
@@ -8082,10 +8082,10 @@
         <v>48.74</v>
       </c>
       <c r="L180" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M180" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8093,7 +8093,7 @@
         <v>211111875</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C181" t="s">
         <v>13</v>
@@ -8123,10 +8123,10 @@
         <v>317.45999999999998</v>
       </c>
       <c r="L181" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M181" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8134,7 +8134,7 @@
         <v>211111875</v>
       </c>
       <c r="B182" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C182" t="s">
         <v>13</v>
@@ -8164,10 +8164,10 @@
         <v>308.20999999999998</v>
       </c>
       <c r="L182" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M182" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
@@ -8175,7 +8175,7 @@
         <v>211111894</v>
       </c>
       <c r="B183" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C183" t="s">
         <v>13</v>
@@ -8187,7 +8187,7 @@
         <v>12747</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G183" s="1">
         <v>45909.459432870368</v>
@@ -8205,10 +8205,10 @@
         <v>105.14</v>
       </c>
       <c r="L183" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M183" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
@@ -8216,7 +8216,7 @@
         <v>211111894</v>
       </c>
       <c r="B184" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C184" t="s">
         <v>13</v>
@@ -8246,10 +8246,10 @@
         <v>110.17</v>
       </c>
       <c r="L184" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M184" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8257,7 +8257,7 @@
         <v>211111909</v>
       </c>
       <c r="B185" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C185" t="s">
         <v>13</v>
@@ -8287,10 +8287,10 @@
         <v>214.12</v>
       </c>
       <c r="L185" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M185" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
@@ -8298,7 +8298,7 @@
         <v>211111909</v>
       </c>
       <c r="B186" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s">
         <v>13</v>
@@ -8328,10 +8328,10 @@
         <v>24.3</v>
       </c>
       <c r="L186" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M186" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
@@ -8339,7 +8339,7 @@
         <v>211111909</v>
       </c>
       <c r="B187" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C187" t="s">
         <v>13</v>
@@ -8369,10 +8369,10 @@
         <v>66.53</v>
       </c>
       <c r="L187" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M187" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
@@ -8380,7 +8380,7 @@
         <v>211111909</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
@@ -8410,10 +8410,10 @@
         <v>60.2</v>
       </c>
       <c r="L188" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M188" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8421,7 +8421,7 @@
         <v>211111909</v>
       </c>
       <c r="B189" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C189" t="s">
         <v>13</v>
@@ -8451,10 +8451,10 @@
         <v>72.2</v>
       </c>
       <c r="L189" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M189" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8462,7 +8462,7 @@
         <v>211111909</v>
       </c>
       <c r="B190" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C190" t="s">
         <v>13</v>
@@ -8492,10 +8492,10 @@
         <v>143.80000000000001</v>
       </c>
       <c r="L190" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M190" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8503,7 +8503,7 @@
         <v>211111909</v>
       </c>
       <c r="B191" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C191" t="s">
         <v>13</v>
@@ -8533,10 +8533,10 @@
         <v>83.54</v>
       </c>
       <c r="L191" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M191" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8544,7 +8544,7 @@
         <v>211111909</v>
       </c>
       <c r="B192" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
@@ -8574,10 +8574,10 @@
         <v>105.77</v>
       </c>
       <c r="L192" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M192" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
         <v>211111909</v>
       </c>
       <c r="B193" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C193" t="s">
         <v>13</v>
@@ -8615,10 +8615,10 @@
         <v>72.180000000000007</v>
       </c>
       <c r="L193" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M193" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8626,7 +8626,7 @@
         <v>211111909</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C194" t="s">
         <v>13</v>
@@ -8656,10 +8656,10 @@
         <v>126.62</v>
       </c>
       <c r="L194" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M194" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8667,7 +8667,7 @@
         <v>211111909</v>
       </c>
       <c r="B195" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C195" t="s">
         <v>13</v>
@@ -8697,10 +8697,10 @@
         <v>33.26</v>
       </c>
       <c r="L195" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M195" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8708,7 +8708,7 @@
         <v>211111932</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C196" t="s">
         <v>13</v>
@@ -8738,10 +8738,10 @@
         <v>137.18</v>
       </c>
       <c r="L196" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M196" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8749,7 +8749,7 @@
         <v>211111932</v>
       </c>
       <c r="B197" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C197" t="s">
         <v>13</v>
@@ -8779,10 +8779,10 @@
         <v>1000</v>
       </c>
       <c r="L197" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M197" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8790,7 +8790,7 @@
         <v>211111943</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C198" t="s">
         <v>13</v>
@@ -8802,7 +8802,7 @@
         <v>11857</v>
       </c>
       <c r="F198" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G198" s="1">
         <v>45912.582881944443</v>
@@ -8820,10 +8820,10 @@
         <v>46.86</v>
       </c>
       <c r="L198" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M198" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8831,7 +8831,7 @@
         <v>211111943</v>
       </c>
       <c r="B199" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C199" t="s">
         <v>13</v>
@@ -8843,7 +8843,7 @@
         <v>12028</v>
       </c>
       <c r="F199" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G199" s="1">
         <v>45918.675983796296</v>
@@ -8861,10 +8861,10 @@
         <v>139.79</v>
       </c>
       <c r="L199" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M199" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
@@ -8872,7 +8872,7 @@
         <v>211111992</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -8884,7 +8884,7 @@
         <v>11599</v>
       </c>
       <c r="F200" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G200" s="1">
         <v>45906.63481481481</v>
@@ -8902,10 +8902,10 @@
         <v>278.55</v>
       </c>
       <c r="L200" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M200" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8913,7 +8913,7 @@
         <v>211111992</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -8925,7 +8925,7 @@
         <v>11768</v>
       </c>
       <c r="F201" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G201" s="1">
         <v>45911.605543981481</v>
@@ -8943,10 +8943,10 @@
         <v>131.35</v>
       </c>
       <c r="L201" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M201" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
@@ -8954,7 +8954,7 @@
         <v>211111992</v>
       </c>
       <c r="B202" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
@@ -8966,7 +8966,7 @@
         <v>12162</v>
       </c>
       <c r="F202" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G202" s="1">
         <v>45921.411377314813</v>
@@ -8984,10 +8984,10 @@
         <v>198.99</v>
       </c>
       <c r="L202" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M202" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
@@ -8995,10 +8995,10 @@
         <v>211111992</v>
       </c>
       <c r="B203" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D203">
         <v>2025</v>
@@ -9025,10 +9025,10 @@
         <v>-23.150000000000002</v>
       </c>
       <c r="L203" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M203" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
@@ -9036,7 +9036,7 @@
         <v>211111992</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C204" t="s">
         <v>13</v>
@@ -9066,10 +9066,10 @@
         <v>60.64</v>
       </c>
       <c r="L204" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M204" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
@@ -9077,10 +9077,10 @@
         <v>211111992</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D205">
         <v>2025</v>
@@ -9107,10 +9107,10 @@
         <v>-30.79</v>
       </c>
       <c r="L205" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M205" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
@@ -9118,7 +9118,7 @@
         <v>211111992</v>
       </c>
       <c r="B206" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
@@ -9148,10 +9148,10 @@
         <v>42.56</v>
       </c>
       <c r="L206" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M206" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
@@ -9159,7 +9159,7 @@
         <v>211111992</v>
       </c>
       <c r="B207" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C207" t="s">
         <v>13</v>
@@ -9189,10 +9189,10 @@
         <v>87.600000000000009</v>
       </c>
       <c r="L207" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M207" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
@@ -9200,10 +9200,10 @@
         <v>211111992</v>
       </c>
       <c r="B208" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C208" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D208">
         <v>2025</v>
@@ -9230,10 +9230,10 @@
         <v>-41.33</v>
       </c>
       <c r="L208" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M208" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
@@ -9241,7 +9241,7 @@
         <v>211111992</v>
       </c>
       <c r="B209" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
@@ -9271,10 +9271,10 @@
         <v>75.180000000000007</v>
       </c>
       <c r="L209" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M209" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
@@ -9282,7 +9282,7 @@
         <v>211112004</v>
       </c>
       <c r="B210" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
@@ -9312,10 +9312,10 @@
         <v>482.92</v>
       </c>
       <c r="L210" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M210" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
@@ -9323,7 +9323,7 @@
         <v>211112004</v>
       </c>
       <c r="B211" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C211" t="s">
         <v>13</v>
@@ -9353,10 +9353,10 @@
         <v>412.48</v>
       </c>
       <c r="L211" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M211" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
@@ -9364,7 +9364,7 @@
         <v>211112004</v>
       </c>
       <c r="B212" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C212" t="s">
         <v>13</v>
@@ -9394,10 +9394,10 @@
         <v>809.44</v>
       </c>
       <c r="L212" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M212" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
@@ -9405,7 +9405,7 @@
         <v>211112004</v>
       </c>
       <c r="B213" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C213" t="s">
         <v>13</v>
@@ -9435,10 +9435,10 @@
         <v>274.67</v>
       </c>
       <c r="L213" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M213" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
@@ -9446,7 +9446,7 @@
         <v>211112004</v>
       </c>
       <c r="B214" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
@@ -9476,10 +9476,10 @@
         <v>412.95</v>
       </c>
       <c r="L214" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M214" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9487,7 +9487,7 @@
         <v>211112004</v>
       </c>
       <c r="B215" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -9517,10 +9517,10 @@
         <v>275.86</v>
       </c>
       <c r="L215" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M215" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9528,7 +9528,7 @@
         <v>211112004</v>
       </c>
       <c r="B216" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
@@ -9558,10 +9558,10 @@
         <v>498.54</v>
       </c>
       <c r="L216" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M216" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
         <v>211112004</v>
       </c>
       <c r="B217" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
@@ -9599,10 +9599,10 @@
         <v>505.28000000000003</v>
       </c>
       <c r="L217" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M217" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9610,7 +9610,7 @@
         <v>211112011</v>
       </c>
       <c r="B218" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C218" t="s">
         <v>13</v>
@@ -9640,10 +9640,10 @@
         <v>413.65000000000003</v>
       </c>
       <c r="L218" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M218" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9651,7 +9651,7 @@
         <v>211112011</v>
       </c>
       <c r="B219" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
@@ -9681,10 +9681,10 @@
         <v>146.38</v>
       </c>
       <c r="L219" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M219" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9692,7 +9692,7 @@
         <v>211112022</v>
       </c>
       <c r="B220" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="C220" t="s">
         <v>13</v>
@@ -9704,7 +9704,7 @@
         <v>11861</v>
       </c>
       <c r="F220" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G220" s="1">
         <v>45882.647453703699</v>
@@ -9722,10 +9722,10 @@
         <v>158.86000000000001</v>
       </c>
       <c r="L220" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M220" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9733,7 +9733,7 @@
         <v>211112028</v>
       </c>
       <c r="B221" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C221" t="s">
         <v>13</v>
@@ -9763,10 +9763,10 @@
         <v>289.98</v>
       </c>
       <c r="L221" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M221" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9774,7 +9774,7 @@
         <v>211112028</v>
       </c>
       <c r="B222" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
@@ -9804,10 +9804,10 @@
         <v>284.86</v>
       </c>
       <c r="L222" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M222" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9815,7 +9815,7 @@
         <v>211112034</v>
       </c>
       <c r="B223" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -9845,10 +9845,10 @@
         <v>127.13000000000001</v>
       </c>
       <c r="L223" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M223" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9856,7 +9856,7 @@
         <v>211112034</v>
       </c>
       <c r="B224" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -9886,10 +9886,10 @@
         <v>43.1</v>
       </c>
       <c r="L224" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M224" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9897,7 +9897,7 @@
         <v>211112034</v>
       </c>
       <c r="B225" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
@@ -9927,10 +9927,10 @@
         <v>158.41</v>
       </c>
       <c r="L225" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M225" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9938,7 +9938,7 @@
         <v>211112034</v>
       </c>
       <c r="B226" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -9968,10 +9968,10 @@
         <v>236.85</v>
       </c>
       <c r="L226" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M226" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9979,7 +9979,7 @@
         <v>211112034</v>
       </c>
       <c r="B227" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -10009,10 +10009,10 @@
         <v>46.36</v>
       </c>
       <c r="L227" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M227" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10020,7 +10020,7 @@
         <v>211112034</v>
       </c>
       <c r="B228" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C228" t="s">
         <v>13</v>
@@ -10050,10 +10050,10 @@
         <v>88.14</v>
       </c>
       <c r="L228" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M228" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10061,7 +10061,7 @@
         <v>211112034</v>
       </c>
       <c r="B229" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
@@ -10091,10 +10091,10 @@
         <v>44.730000000000004</v>
       </c>
       <c r="L229" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M229" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10102,7 +10102,7 @@
         <v>211112034</v>
       </c>
       <c r="B230" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
@@ -10132,10 +10132,10 @@
         <v>143.91</v>
       </c>
       <c r="L230" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M230" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10143,7 +10143,7 @@
         <v>211112034</v>
       </c>
       <c r="B231" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
@@ -10173,10 +10173,10 @@
         <v>97.18</v>
       </c>
       <c r="L231" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M231" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10184,7 +10184,7 @@
         <v>211112034</v>
       </c>
       <c r="B232" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C232" t="s">
         <v>13</v>
@@ -10214,10 +10214,10 @@
         <v>130.99</v>
       </c>
       <c r="L232" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M232" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10225,7 +10225,7 @@
         <v>211112075</v>
       </c>
       <c r="B233" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -10237,7 +10237,7 @@
         <v>13281</v>
       </c>
       <c r="F233" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G233" s="1">
         <v>45938.545312499999</v>
@@ -10255,10 +10255,10 @@
         <v>78.72</v>
       </c>
       <c r="L233" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M233" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10266,7 +10266,7 @@
         <v>211112132</v>
       </c>
       <c r="B234" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C234" t="s">
         <v>13</v>
@@ -10278,7 +10278,7 @@
         <v>12699</v>
       </c>
       <c r="F234" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G234" s="1">
         <v>45938.458437499998</v>
@@ -10296,10 +10296,10 @@
         <v>112.84</v>
       </c>
       <c r="L234" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M234" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
@@ -10307,7 +10307,7 @@
         <v>211112132</v>
       </c>
       <c r="B235" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
@@ -10319,7 +10319,7 @@
         <v>12828</v>
       </c>
       <c r="F235" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G235" s="1">
         <v>45941.309814814813</v>
@@ -10337,10 +10337,10 @@
         <v>168.89000000000001</v>
       </c>
       <c r="L235" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M235" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10348,7 +10348,7 @@
         <v>211112132</v>
       </c>
       <c r="B236" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C236" t="s">
         <v>13</v>
@@ -10360,7 +10360,7 @@
         <v>13138</v>
       </c>
       <c r="F236" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G236" s="1">
         <v>45948.415358796294</v>
@@ -10378,10 +10378,10 @@
         <v>129.26</v>
       </c>
       <c r="L236" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M236" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
@@ -10389,7 +10389,7 @@
         <v>211112132</v>
       </c>
       <c r="B237" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -10401,7 +10401,7 @@
         <v>13219</v>
       </c>
       <c r="F237" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G237" s="1">
         <v>45952.426793981482</v>
@@ -10419,10 +10419,10 @@
         <v>147.11000000000001</v>
       </c>
       <c r="L237" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M237" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
@@ -10430,7 +10430,7 @@
         <v>211112132</v>
       </c>
       <c r="B238" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C238" t="s">
         <v>13</v>
@@ -10460,10 +10460,10 @@
         <v>136.41</v>
       </c>
       <c r="L238" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M238" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
@@ -10471,7 +10471,7 @@
         <v>211112158</v>
       </c>
       <c r="B239" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C239" t="s">
         <v>13</v>
@@ -10483,7 +10483,7 @@
         <v>12744</v>
       </c>
       <c r="F239" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G239" s="1">
         <v>45939.459340277775</v>
@@ -10501,10 +10501,10 @@
         <v>36.200000000000003</v>
       </c>
       <c r="L239" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M239" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
         <v>211112158</v>
       </c>
       <c r="B240" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
@@ -10524,7 +10524,7 @@
         <v>13007</v>
       </c>
       <c r="F240" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G240" s="1">
         <v>45946.515405092592</v>
@@ -10542,10 +10542,10 @@
         <v>34.61</v>
       </c>
       <c r="L240" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M240" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>211112158</v>
       </c>
       <c r="B241" t="s">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -10565,7 +10565,7 @@
         <v>13282</v>
       </c>
       <c r="F241" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G241" s="1">
         <v>45953.546574074069</v>
@@ -10583,10 +10583,10 @@
         <v>35.97</v>
       </c>
       <c r="L241" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M241" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10594,7 +10594,7 @@
         <v>211112182</v>
       </c>
       <c r="B242" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C242" t="s">
         <v>13</v>
@@ -10624,10 +10624,10 @@
         <v>201.54</v>
       </c>
       <c r="L242" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M242" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10635,7 +10635,7 @@
         <v>211112184</v>
       </c>
       <c r="B243" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C243" t="s">
         <v>13</v>
@@ -10665,10 +10665,10 @@
         <v>136.76</v>
       </c>
       <c r="L243" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M243" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10676,7 +10676,7 @@
         <v>211112198</v>
       </c>
       <c r="B244" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -10706,10 +10706,10 @@
         <v>187.19</v>
       </c>
       <c r="L244" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M244" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10717,7 +10717,7 @@
         <v>211112198</v>
       </c>
       <c r="B245" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
@@ -10747,10 +10747,10 @@
         <v>56.89</v>
       </c>
       <c r="L245" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M245" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10758,10 +10758,10 @@
         <v>211112314</v>
       </c>
       <c r="B246" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C246" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D246">
         <v>2025</v>
@@ -10788,10 +10788,10 @@
         <v>-16.809999999999999</v>
       </c>
       <c r="L246" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M246" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10799,7 +10799,7 @@
         <v>211112314</v>
       </c>
       <c r="B247" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C247" t="s">
         <v>13</v>
@@ -10829,10 +10829,10 @@
         <v>417.92</v>
       </c>
       <c r="L247" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M247" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10840,7 +10840,7 @@
         <v>211112322</v>
       </c>
       <c r="B248" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
@@ -10870,10 +10870,10 @@
         <v>160.64000000000001</v>
       </c>
       <c r="L248" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M248" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10881,7 +10881,7 @@
         <v>211112322</v>
       </c>
       <c r="B249" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
@@ -10911,10 +10911,10 @@
         <v>119.47</v>
       </c>
       <c r="L249" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M249" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10922,7 +10922,7 @@
         <v>211112323</v>
       </c>
       <c r="B250" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
@@ -10934,7 +10934,7 @@
         <v>12827</v>
       </c>
       <c r="F250" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G250" s="1">
         <v>45926.309791666667</v>
@@ -10952,10 +10952,10 @@
         <v>267.3</v>
       </c>
       <c r="L250" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M250" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10963,7 +10963,7 @@
         <v>211112323</v>
       </c>
       <c r="B251" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C251" t="s">
         <v>13</v>
@@ -10975,7 +10975,7 @@
         <v>13009</v>
       </c>
       <c r="F251" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G251" s="1">
         <v>45931.515486111108</v>
@@ -10993,10 +10993,10 @@
         <v>54.28</v>
       </c>
       <c r="L251" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M251" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -11004,7 +11004,7 @@
         <v>211112323</v>
       </c>
       <c r="B252" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -11034,10 +11034,10 @@
         <v>108.28</v>
       </c>
       <c r="L252" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M252" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -11045,10 +11045,10 @@
         <v>211112327</v>
       </c>
       <c r="B253" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D253">
         <v>2025</v>
@@ -11075,10 +11075,10 @@
         <v>-52.050000000000004</v>
       </c>
       <c r="L253" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M253" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11086,10 +11086,10 @@
         <v>211112327</v>
       </c>
       <c r="B254" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C254" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D254" t="s">
         <v>14</v>
@@ -11116,10 +11116,10 @@
         <v>-26.51</v>
       </c>
       <c r="L254" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M254" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11127,7 +11127,7 @@
         <v>211112401</v>
       </c>
       <c r="B255" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C255" t="s">
         <v>13</v>
@@ -11139,7 +11139,7 @@
         <v>12856</v>
       </c>
       <c r="F255" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G255" s="1">
         <v>45926.450983796298</v>
@@ -11157,10 +11157,10 @@
         <v>77.55</v>
       </c>
       <c r="L255" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M255" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11168,7 +11168,7 @@
         <v>211112401</v>
       </c>
       <c r="B256" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C256" t="s">
         <v>13</v>
@@ -11180,7 +11180,7 @@
         <v>13359</v>
       </c>
       <c r="F256" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G256" s="1">
         <v>45940.426446759258</v>
@@ -11198,10 +11198,10 @@
         <v>86.11</v>
       </c>
       <c r="L256" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M256" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11209,7 +11209,7 @@
         <v>211112477</v>
       </c>
       <c r="B257" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C257" t="s">
         <v>13</v>
@@ -11239,10 +11239,10 @@
         <v>106.62</v>
       </c>
       <c r="L257" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M257" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11250,7 +11250,7 @@
         <v>211112552</v>
       </c>
       <c r="B258" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C258" t="s">
         <v>13</v>
@@ -11262,7 +11262,7 @@
         <v>13114</v>
       </c>
       <c r="F258" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G258" s="1">
         <v>45933.36515046296</v>
@@ -11280,10 +11280,10 @@
         <v>34.49</v>
       </c>
       <c r="L258" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M258" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11291,7 +11291,7 @@
         <v>211112552</v>
       </c>
       <c r="B259" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C259" t="s">
         <v>13</v>
@@ -11303,7 +11303,7 @@
         <v>13247</v>
       </c>
       <c r="F259" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G259" s="1">
         <v>45938.388171296298</v>
@@ -11321,10 +11321,10 @@
         <v>131.89000000000001</v>
       </c>
       <c r="L259" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M259" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11332,7 +11332,7 @@
         <v>211112554</v>
       </c>
       <c r="B260" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -11362,10 +11362,10 @@
         <v>20.93</v>
       </c>
       <c r="L260" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M260" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11373,7 +11373,7 @@
         <v>211112555</v>
       </c>
       <c r="B261" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
@@ -11385,7 +11385,7 @@
         <v>13000</v>
       </c>
       <c r="F261" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G261" s="1">
         <v>45931.487881944442</v>
@@ -11403,10 +11403,10 @@
         <v>47.92</v>
       </c>
       <c r="L261" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M261" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11414,7 +11414,7 @@
         <v>211112555</v>
       </c>
       <c r="B262" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -11426,7 +11426,7 @@
         <v>13279</v>
       </c>
       <c r="F262" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G262" s="1">
         <v>45938.476469907408</v>
@@ -11444,10 +11444,10 @@
         <v>58.660000000000004</v>
       </c>
       <c r="L262" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M262" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11455,7 +11455,7 @@
         <v>211112555</v>
       </c>
       <c r="B263" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -11467,7 +11467,7 @@
         <v>13288</v>
       </c>
       <c r="F263" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G263" s="1">
         <v>45938.641608796293</v>
@@ -11485,10 +11485,10 @@
         <v>21.97</v>
       </c>
       <c r="L263" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M263" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
@@ -11496,7 +11496,7 @@
         <v>211112557</v>
       </c>
       <c r="B264" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C264" t="s">
         <v>13</v>
@@ -11508,7 +11508,7 @@
         <v>13264</v>
       </c>
       <c r="F264" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G264" s="1">
         <v>45938.412835648145</v>
@@ -11526,10 +11526,10 @@
         <v>116.04</v>
       </c>
       <c r="L264" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M264" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
@@ -11537,7 +11537,7 @@
         <v>211112558</v>
       </c>
       <c r="B265" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C265" t="s">
         <v>13</v>
@@ -11549,7 +11549,7 @@
         <v>13353</v>
       </c>
       <c r="F265" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G265" s="1">
         <v>45940.383587962962</v>
@@ -11567,10 +11567,10 @@
         <v>216.55</v>
       </c>
       <c r="L265" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M265" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -11608,10 +11608,10 @@
         <v>392.2</v>
       </c>
       <c r="L266" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M266" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11649,10 +11649,10 @@
         <v>392.2</v>
       </c>
       <c r="L267" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M267" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
